--- a/biology/Microbiologie/Pseudopode/Pseudopode.xlsx
+++ b/biology/Microbiologie/Pseudopode/Pseudopode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pseudopodes (du grec pseudês, qui signifie « faux », et podos, « pied ») sont des déformations de la membrane plasmique qui permettent à une cellule de se nourrir et se déplacer en rampant sur un support dans une direction déterminée.
 Ce prolongement cellulaire rétractile permet à la cellule de ramper sur une surface plane.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On observe la production de pseudopodes uniquement chez les cellules eucaryotes, plus précisément chez les cellules animales ou chez les protistes (par exemple : les amibes).
 Ces déformations de la cellule sont provoquées par des pressions internes du cytoplasme. La cellule forme temporairement des micro-filaments (à partir de sous-unités d’actine, similaires aux contractions des microfilaments d’actine aussi présents dans les cellules musculaires animales), accompagnés du relâchement d’autres sites (situés à l’avant du mouvement) puis des réseaux qui modifient la consistance du cytoplasme.
